--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145731.0760658541</v>
+        <v>25179089.16080495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145731.0760658541</v>
+        <v>25179089.16080495</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17028.01610412283</v>
+        <v>2032073.382504316</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17028.01610412283</v>
+        <v>2032073.382504316</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341099398.548809</v>
+        <v>51785511.49559057</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9748.631351305117</v>
+        <v>1047119.23113128</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19448.24305879589</v>
+        <v>2090465.761601447</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28959.34287257462</v>
+        <v>3166442.137398626</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38981.24084322691</v>
+        <v>4196154.225425985</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48876.3349523128</v>
+        <v>5230965.645489772</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58378.73476609225</v>
+        <v>6305210.72128686</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67919.90176194839</v>
+        <v>7402175.596027598</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77657.56270272263</v>
+        <v>8501740.83458093</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87716.30766075147</v>
+        <v>9536853.258832451</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97226.90068922592</v>
+        <v>10620034.20712269</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106547.824102935</v>
+        <v>11712437.67210268</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115888.1429098646</v>
+        <v>12808700.82033367</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125228.4617167946</v>
+        <v>13904963.96856456</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135210.741018212</v>
+        <v>14940976.45040016</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146171.7129254584</v>
+        <v>15844720.03930103</v>
       </c>
     </row>
   </sheetData>
